--- a/final_skr_over_attenuation.xlsx
+++ b/final_skr_over_attenuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\OneDrive\Dokumente\Uni\Semester 7\NeuMoQP\Programm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leavi\bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E419CD-5270-4E5B-9BB5-7C46CA77B915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE0AD5C-F994-47E8-8B86-3E75E8F36AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,10 @@
     <t>per batch symbols</t>
   </si>
   <si>
-    <t>in Mbit</t>
-  </si>
-  <si>
     <t>RKR in Mbit/s</t>
+  </si>
+  <si>
+    <t>rate in MHz</t>
   </si>
 </sst>
 </file>
@@ -503,21 +503,21 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C1" sqref="C1:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="64.453125" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="64.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>6</v>
@@ -551,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -575,7 +575,7 @@
       </c>
       <c r="H2" s="7">
         <f>$F$15*G2/(0.5*F2*$F$13)</f>
-        <v>21829</v>
+        <v>35.472124999999998</v>
       </c>
       <c r="I2" s="5">
         <v>85966582.933660746</v>
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>26</v>
       </c>
@@ -607,8 +607,8 @@
         <v>17775</v>
       </c>
       <c r="H3" s="7">
-        <f>$F$15*G3/(0.5*F3*$F$13)</f>
-        <v>17775</v>
+        <f t="shared" ref="H2:H10" si="0">$F$15*G3/(0.5*F3*$F$13)</f>
+        <v>28.884374999999999</v>
       </c>
       <c r="I3" s="5">
         <v>73463236.693587929</v>
@@ -617,7 +617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -640,8 +640,8 @@
         <v>22955</v>
       </c>
       <c r="H4" s="7">
-        <f>$F$15*G4/(0.5*F4*$F$13)</f>
-        <v>22955</v>
+        <f t="shared" si="0"/>
+        <v>37.301875000000003</v>
       </c>
       <c r="I4" s="5">
         <v>69725255.78241989</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -673,8 +673,8 @@
         <v>14927</v>
       </c>
       <c r="H5" s="7">
-        <f>$F$15*G5/(0.5*F5*$F$13)</f>
-        <v>14927</v>
+        <f t="shared" si="0"/>
+        <v>24.256374999999998</v>
       </c>
       <c r="I5" s="5">
         <v>48726479.320642039</v>
@@ -683,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -707,8 +707,8 @@
         <v>14876</v>
       </c>
       <c r="H6" s="7">
-        <f>$F$15*G6/(0.5*F6*$F$13)</f>
-        <v>7438</v>
+        <f t="shared" si="0"/>
+        <v>12.08675</v>
       </c>
       <c r="I6" s="5">
         <v>21215469.400269501</v>
@@ -720,7 +720,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -744,8 +744,8 @@
         <v>7764</v>
       </c>
       <c r="H7" s="7">
-        <f>$F$15*G7/(0.5*F7*$F$13)</f>
-        <v>3882</v>
+        <f t="shared" si="0"/>
+        <v>6.3082500000000001</v>
       </c>
       <c r="I7" s="5">
         <v>13183639.88653612</v>
@@ -757,7 +757,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -781,8 +781,8 @@
         <v>4208</v>
       </c>
       <c r="H8" s="7">
-        <f>$F$15*G8/(0.5*F8*$F$13)</f>
-        <v>2104</v>
+        <f t="shared" si="0"/>
+        <v>3.419</v>
       </c>
       <c r="I8" s="5">
         <v>7088699.8876435598</v>
@@ -794,7 +794,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -818,8 +818,8 @@
         <v>2129</v>
       </c>
       <c r="H9" s="7">
-        <f>$F$15*G9/(0.5*F9*$F$13)</f>
-        <v>1064.5</v>
+        <f t="shared" si="0"/>
+        <v>1.7298125</v>
       </c>
       <c r="I9" s="5">
         <v>3466312.4863694198</v>
@@ -831,7 +831,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19</v>
       </c>
@@ -855,8 +855,8 @@
         <v>1067</v>
       </c>
       <c r="H10" s="7">
-        <f>$F$15*G10/(0.5*F10*$F$13)</f>
-        <v>533.5</v>
+        <f t="shared" si="0"/>
+        <v>0.86693750000000003</v>
       </c>
       <c r="I10" s="5">
         <v>1697046.7096066701</v>
@@ -868,27 +868,29 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15">
-        <v>1000000</v>
+        <f>6500/4</f>
+        <v>1625</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>